--- a/docs/EECS 581 - Project 3 Timesheet.xlsx
+++ b/docs/EECS 581 - Project 3 Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e72c0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{11CF0167-A999-479B-82C3-6BD3867EA56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18D006A7-5C6E-4718-8E3F-F5499A79DF14}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{11CF0167-A999-479B-82C3-6BD3867EA56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC3E360-C9B8-453A-AC2C-D7AC90BE86FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
+    <workbookView xWindow="1770" yWindow="1440" windowWidth="24450" windowHeight="14040" activeTab="5" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Aiden Burke" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Added requirements and stories</t>
+  </si>
+  <si>
+    <t>Sprint work and sending messaegs</t>
+  </si>
+  <si>
+    <t>Meeting and creating tickets</t>
+  </si>
+  <si>
+    <t>Implementing multiplayer</t>
   </si>
 </sst>
 </file>
@@ -162,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D7639-386D-4AD2-A826-6E21D17A1B0D}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -704,35 +717,56 @@
       <c r="A16" s="3">
         <v>45950</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45956</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -932,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85CE61-8B10-4CE6-B996-3193813E772C}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1082,35 +1116,56 @@
       <c r="A16" s="3">
         <v>45950</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45956</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1310,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A4D2FE-A479-4AEB-8985-CEC38BE970E7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,35 +1514,56 @@
       <c r="A16" s="3">
         <v>45950</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45956</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1687,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A78E55E-D750-4EE0-8872-FD4EAA1095EC}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1790,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table1[[#All],[Hours]])</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,35 +1918,65 @@
       <c r="A16" s="3">
         <v>45950</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45956</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2085,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCAF2B4-022D-482B-9B3E-2C3BF2D5A1CF}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2234,35 +2340,56 @@
       <c r="A16" s="3">
         <v>45950</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45956</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2462,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461B9AF1-70E5-4DEB-97CB-64DB7B3CE921}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2611,35 +2738,56 @@
       <c r="A16" s="3">
         <v>45950</v>
       </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45956</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>

--- a/docs/EECS 581 - Project 3 Timesheet.xlsx
+++ b/docs/EECS 581 - Project 3 Timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e72c0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vex10\OneDrive\3. KU\2025-2026\1 - Fall Semester\EECS 581\Projects\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{11CF0167-A999-479B-82C3-6BD3867EA56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC3E360-C9B8-453A-AC2C-D7AC90BE86FC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1440" windowWidth="24450" windowHeight="14040" activeTab="5" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Aiden Burke" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Brett Suhr'!$A$1:$G$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Nicholas Holmes'!$A$1:$G$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Riley Meyerkorth'!$A$1:$G$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ty Farrington'!$A$1:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ty Farrington'!$A$1:$J$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,33 @@
     <t>Project due</t>
   </si>
   <si>
+    <t>Architecture due, spent time working on front-end development and styling</t>
+  </si>
+  <si>
+    <t>Spent more time working on front end assets including game background scenery</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Sprint 2 Release and Sprint 3 requirements</t>
+  </si>
+  <si>
+    <t>Sprint 3 Release and Sprint 4 requirements</t>
+  </si>
+  <si>
+    <t>Sprint 4 release</t>
+  </si>
+  <si>
+    <t>Project due (includes video)</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Completing tickets</t>
+  </si>
+  <si>
     <t>Went to meeting</t>
   </si>
   <si>
@@ -88,6 +115,36 @@
   </si>
   <si>
     <t>Implementing multiplayer</t>
+  </si>
+  <si>
+    <t>Worked on implementing background for map</t>
+  </si>
+  <si>
+    <t>Started work on multiplayer poker implementation</t>
+  </si>
+  <si>
+    <t>Got a very basic but functional poker implementation working</t>
+  </si>
+  <si>
+    <t>Meeting Updates</t>
+  </si>
+  <si>
+    <t>UML Diagram Creation</t>
+  </si>
+  <si>
+    <t>Architecture due and Finalizing Diagrams</t>
+  </si>
+  <si>
+    <t>Team Meeting and Work</t>
+  </si>
+  <si>
+    <t>Work on tickets</t>
+  </si>
+  <si>
+    <t>Sprint 2 due</t>
+  </si>
+  <si>
+    <t>Sprint 3 due</t>
   </si>
 </sst>
 </file>
@@ -171,10 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D7639-386D-4AD2-A826-6E21D17A1B0D}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,7 +648,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table1345[[#All],[Hours]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,35 +829,62 @@
       <c r="A23" s="3">
         <v>45957</v>
       </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,22 +1044,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85CE61-8B10-4CE6-B996-3193813E772C}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,15 +1073,15 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5">
+      <c r="J1" s="5">
         <f>SUM(Table134[[#All],[Hours]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -1005,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -1013,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -1021,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -1029,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -1037,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -1045,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -1053,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -1061,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -1069,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -1077,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -1085,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -1093,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -1101,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -1112,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -1165,46 +1249,76 @@
         <v>45956</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -1221,84 +1335,99 @@
         <v>45966</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45982</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1338,6 +1467,9 @@
       <c r="A55" s="3">
         <v>45989</v>
       </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -1349,7 +1481,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1365,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A4D2FE-A479-4AEB-8985-CEC38BE970E7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1524,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table13[[#All],[Hours]])</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,6 +1566,9 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1539,7 +1674,10 @@
         <v>45953</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,7 +1685,10 @@
         <v>45954</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1704,7 @@
         <v>45956</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1573,35 +1714,62 @@
       <c r="A23" s="3">
         <v>45957</v>
       </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A78E55E-D750-4EE0-8872-FD4EAA1095EC}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1958,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table1[[#All],[Hours]])</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1965,10 +2133,10 @@
         <v>45955</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,36 +2154,72 @@
       <c r="A23" s="3">
         <v>45957</v>
       </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -2032,84 +2236,99 @@
         <v>45966</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45982</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2149,6 +2368,9 @@
       <c r="A55" s="3">
         <v>45989</v>
       </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
@@ -2160,7 +2382,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,7 +2414,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2218,7 +2440,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table16[[#All],[Hours]])</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,6 +2482,9 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2316,6 +2541,9 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -2373,7 +2601,10 @@
         <v>45954</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2612,10 @@
         <v>45955</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,45 +2623,72 @@
         <v>45956</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461B9AF1-70E5-4DEB-97CB-64DB7B3CE921}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2877,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table167[[#All],[Hours]])</f>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2658,6 +2919,9 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2712,7 +2976,10 @@
         <v>45947</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2763,7 +3030,10 @@
         <v>45953</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,7 +3041,10 @@
         <v>45954</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2787,7 +3060,7 @@
         <v>45956</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2797,35 +3070,62 @@
       <c r="A23" s="3">
         <v>45957</v>
       </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">

--- a/docs/EECS 581 - Project 3 Timesheet.xlsx
+++ b/docs/EECS 581 - Project 3 Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vex10\OneDrive\3. KU\2025-2026\1 - Fall Semester\EECS 581\Projects\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e72c0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996663EC-B4F7-41DF-8F25-C4D79A65D925}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Aiden Burke" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,12 @@
     <t>Architecture due</t>
   </si>
   <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Sprint 2 Release and Sprint 3 requirements</t>
+  </si>
+  <si>
     <t>Sprint releases due</t>
   </si>
   <si>
@@ -81,10 +87,10 @@
     <t>Spent more time working on front end assets including game background scenery</t>
   </si>
   <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Sprint 2 Release and Sprint 3 requirements</t>
+    <t>Meeting Updates</t>
+  </si>
+  <si>
+    <t>Sprint 2 Release and Sprint 3 requirements. Worked on slots, blackjack, and poker game logic and loops. Also worked on frontend designs for blackjack, poker, and slots</t>
   </si>
   <si>
     <t>Sprint 3 Release and Sprint 4 requirements</t>
@@ -102,6 +108,9 @@
     <t>Completing tickets</t>
   </si>
   <si>
+    <t>Sprint 2 Release and Sprint 3 requirements. Worked on game logic and frontend implementation for Blackjack and Slots.</t>
+  </si>
+  <si>
     <t>Went to meeting</t>
   </si>
   <si>
@@ -126,15 +135,15 @@
     <t>Got a very basic but functional poker implementation working</t>
   </si>
   <si>
-    <t>Meeting Updates</t>
-  </si>
-  <si>
     <t>UML Diagram Creation</t>
   </si>
   <si>
     <t>Architecture due and Finalizing Diagrams</t>
   </si>
   <si>
+    <t>Sprint 3 due</t>
+  </si>
+  <si>
     <t>Team Meeting and Work</t>
   </si>
   <si>
@@ -144,7 +153,10 @@
     <t>Sprint 2 due</t>
   </si>
   <si>
-    <t>Sprint 3 due</t>
+    <t>Meeting and fix poker</t>
+  </si>
+  <si>
+    <t>Sprint 4 release and Project due (includes video)</t>
   </si>
 </sst>
 </file>
@@ -206,13 +218,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,6 +243,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56D7639-386D-4AD2-A826-6E21D17A1B0D}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -992,7 +1011,7 @@
         <v>45984</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,7 +1049,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1046,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85CE61-8B10-4CE6-B996-3193813E772C}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1097,7 @@
       </c>
       <c r="J1" s="5">
         <f>SUM(Table134[[#All],[Hours]])</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,10 +1279,10 @@
         <v>45957</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -1309,15 +1328,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1364,7 @@
         <v>45968</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1358,7 +1377,7 @@
         <v>45970</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,7 +1405,7 @@
         <v>45975</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1399,7 +1418,7 @@
         <v>45977</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1427,7 +1446,7 @@
         <v>45982</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1459,7 @@
         <v>45984</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1468,7 +1487,7 @@
         <v>45989</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1500,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1497,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A4D2FE-A479-4AEB-8985-CEC38BE970E7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1543,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table13[[#All],[Hours]])</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1761,15 +1780,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,7 +1896,7 @@
         <v>45984</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1915,7 +1934,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1931,15 +1950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A78E55E-D750-4EE0-8872-FD4EAA1095EC}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1958,7 +1977,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table1[[#All],[Hours]])</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2106,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2136,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2158,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,36 +2236,48 @@
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,7 +2290,7 @@
         <v>45970</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,7 +2318,7 @@
         <v>45975</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,9 +2330,6 @@
       <c r="A43" s="3">
         <v>45977</v>
       </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -2328,7 +2356,7 @@
         <v>45982</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2369,7 @@
         <v>45984</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,7 +2397,7 @@
         <v>45989</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,7 +2410,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCAF2B4-022D-482B-9B3E-2C3BF2D5A1CF}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2796,7 +2824,7 @@
         <v>45984</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,7 +2862,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461B9AF1-70E5-4DEB-97CB-64DB7B3CE921}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -2920,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3125,7 +3153,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3233,7 +3261,7 @@
         <v>45984</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,7 +3299,7 @@
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/EECS 581 - Project 3 Timesheet.xlsx
+++ b/docs/EECS 581 - Project 3 Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e72c0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15E72C0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{996663EC-B4F7-41DF-8F25-C4D79A65D925}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3241089-CD44-429E-A083-985FF6A01FA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
   </bookViews>
@@ -243,10 +243,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,7 +1947,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1973,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table1[[#All],[Hours]])</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2284,10 +2280,16 @@
       <c r="A35" s="3">
         <v>45969</v>
       </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45970</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>

--- a/docs/EECS 581 - Project 3 Timesheet.xlsx
+++ b/docs/EECS 581 - Project 3 Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15E72C0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e72c0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3241089-CD44-429E-A083-985FF6A01FA8}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86F9367-F7EA-4BD8-94F1-5279C7C16700}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Sprint 4 release and Project due (includes video)</t>
+  </si>
+  <si>
+    <t>Fix prologue comments</t>
   </si>
 </sst>
 </file>
@@ -243,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1946,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A78E55E-D750-4EE0-8872-FD4EAA1095EC}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1980,7 @@
       </c>
       <c r="G1" s="5">
         <f>SUM(Table1[[#All],[Hours]])</f>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,26 +2306,41 @@
       <c r="A37" s="3">
         <v>45971</v>
       </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -2327,36 +2349,60 @@
       <c r="A42" s="3">
         <v>45976</v>
       </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
@@ -2365,10 +2411,16 @@
       <c r="A49" s="3">
         <v>45983</v>
       </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45984</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>

--- a/docs/EECS 581 - Project 3 Timesheet.xlsx
+++ b/docs/EECS 581 - Project 3 Timesheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15e72c0730480894/3. KU/2025-2026/1 - Fall Semester/EECS 581/Projects/Project 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ty Farrington\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{3ED7A869-8DAD-46F5-8110-309773D82E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86F9367-F7EA-4BD8-94F1-5279C7C16700}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{275C2F52-4F29-480A-BFC6-F77E2A2D5C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="1" xr2:uid="{2F0C5FD8-9E99-4E80-8D2E-BCE62E792A95}"/>
   </bookViews>
   <sheets>
     <sheet name="Aiden Burke" sheetId="9" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -96,12 +96,6 @@
     <t>Sprint 3 Release and Sprint 4 requirements</t>
   </si>
   <si>
-    <t>Sprint 4 release</t>
-  </si>
-  <si>
-    <t>Project due (includes video)</t>
-  </si>
-  <si>
     <t>Team Meeting</t>
   </si>
   <si>
@@ -160,6 +154,30 @@
   </si>
   <si>
     <t>Fix prologue comments</t>
+  </si>
+  <si>
+    <t>Finished singleplayer blackjack</t>
+  </si>
+  <si>
+    <t>Began working on multiplayer blackjack UI and Backend</t>
+  </si>
+  <si>
+    <t>Continued working on multiplayer blackjack UI and Backend</t>
+  </si>
+  <si>
+    <t>Began testing multiplayer within the same device +  created smoother multiplayer gameplay</t>
+  </si>
+  <si>
+    <t>Continued trying to fix LAN Multiplayer for blackjack</t>
+  </si>
+  <si>
+    <t>Working on LAN Multiplayer fixes cross-device for blackjack</t>
+  </si>
+  <si>
+    <t>Worked on final fixes for the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met to discuss video presentation + record video segment </t>
   </si>
 </sst>
 </file>
@@ -246,10 +264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,15 +661,15 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -681,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -689,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -697,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -705,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -713,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -721,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -729,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -737,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -745,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -753,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -761,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -769,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -777,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -788,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -796,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
@@ -804,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
@@ -812,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
@@ -820,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
@@ -828,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
@@ -836,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45956</v>
       </c>
@@ -847,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
@@ -855,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
@@ -863,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
@@ -871,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
@@ -879,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
@@ -890,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -898,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
@@ -909,107 +923,107 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45983</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45984</v>
       </c>
@@ -1017,37 +1031,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45985</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45986</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45987</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45988</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45989</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45990</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45991</v>
       </c>
@@ -1068,24 +1082,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E85CE61-8B10-4CE6-B996-3193813E772C}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,10 +1114,10 @@
       </c>
       <c r="J1" s="5">
         <f>SUM(Table134[[#All],[Hours]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -1111,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -1119,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -1127,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -1143,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -1151,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -1167,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -1175,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -1207,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
@@ -1258,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45956</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
@@ -1288,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
@@ -1296,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
@@ -1304,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
@@ -1312,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
@@ -1323,7 +1337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -1331,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
@@ -1342,168 +1356,273 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45983</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45984</v>
       </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
       <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45985</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45986</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45987</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45988</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45989</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45990</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45991</v>
       </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1523,15 +1642,15 @@
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -1557,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -1565,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -1573,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -1581,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -1589,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -1600,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -1608,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -1616,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -1624,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -1632,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -1640,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -1648,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -1656,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -1667,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -1675,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
@@ -1683,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
@@ -1691,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
@@ -1699,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
@@ -1710,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
@@ -1721,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45956</v>
       </c>
@@ -1732,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
@@ -1740,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
@@ -1748,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
@@ -1756,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
@@ -1764,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
@@ -1775,7 +1894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -1783,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
@@ -1791,110 +1910,110 @@
         <v>5</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45983</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45984</v>
       </c>
@@ -1902,37 +2021,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45985</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45986</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45987</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45988</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45989</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45990</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45991</v>
       </c>
@@ -1953,19 +2072,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A78E55E-D750-4EE0-8872-FD4EAA1095EC}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +2102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -1991,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -1999,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -2007,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -2015,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -2023,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -2034,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -2042,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -2050,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -2058,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -2066,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -2074,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -2082,10 +2201,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -2093,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -2104,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -2112,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
@@ -2120,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
@@ -2128,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
@@ -2139,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
@@ -2147,10 +2266,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
@@ -2158,10 +2277,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45956</v>
       </c>
@@ -2172,7 +2291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
@@ -2180,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
@@ -2191,10 +2310,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
@@ -2202,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
@@ -2210,10 +2329,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
@@ -2224,7 +2343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -2232,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
@@ -2240,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
@@ -2248,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
@@ -2256,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
@@ -2264,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
@@ -2272,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
@@ -2280,10 +2399,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
@@ -2291,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
@@ -2302,7 +2421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
@@ -2310,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
@@ -2318,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
@@ -2326,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
@@ -2334,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
@@ -2345,7 +2464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
@@ -2353,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
@@ -2361,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
@@ -2369,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
@@ -2377,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
@@ -2385,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
@@ -2393,10 +2512,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
@@ -2407,7 +2526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45983</v>
       </c>
@@ -2415,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45984</v>
       </c>
@@ -2426,27 +2545,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45985</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45986</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45987</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45988</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45989</v>
       </c>
@@ -2454,32 +2573,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45990</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45991</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
     </row>
   </sheetData>
@@ -2499,15 +2618,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -2533,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -2541,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -2549,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -2557,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -2565,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -2576,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -2584,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -2592,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -2600,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -2608,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -2616,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -2627,7 +2746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -2635,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -2646,7 +2765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -2654,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
@@ -2662,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
@@ -2670,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
@@ -2678,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
@@ -2686,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
@@ -2697,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45956</v>
       </c>
@@ -2708,10 +2827,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
@@ -2719,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
@@ -2727,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
@@ -2735,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
@@ -2743,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
@@ -2754,7 +2873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -2762,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
@@ -2770,110 +2889,110 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45983</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45984</v>
       </c>
@@ -2881,37 +3000,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45985</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45986</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45987</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45988</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45989</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45990</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45991</v>
       </c>
@@ -2936,15 +3055,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +3081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45936</v>
       </c>
@@ -2970,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45937</v>
       </c>
@@ -2978,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45938</v>
       </c>
@@ -2986,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45939</v>
       </c>
@@ -2994,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45940</v>
       </c>
@@ -3002,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45941</v>
       </c>
@@ -3013,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45942</v>
       </c>
@@ -3021,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45943</v>
       </c>
@@ -3029,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>45944</v>
       </c>
@@ -3037,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45945</v>
       </c>
@@ -3045,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>45946</v>
       </c>
@@ -3053,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>45947</v>
       </c>
@@ -3061,10 +3180,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>45948</v>
       </c>
@@ -3072,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45949</v>
       </c>
@@ -3083,7 +3202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>45950</v>
       </c>
@@ -3091,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>45951</v>
       </c>
@@ -3099,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>45952</v>
       </c>
@@ -3107,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45953</v>
       </c>
@@ -3115,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>45954</v>
       </c>
@@ -3126,10 +3245,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>45955</v>
       </c>
@@ -3137,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>45956</v>
       </c>
@@ -3148,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45957</v>
       </c>
@@ -3156,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>45958</v>
       </c>
@@ -3164,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>45959</v>
       </c>
@@ -3172,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45960</v>
       </c>
@@ -3180,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45961</v>
       </c>
@@ -3191,7 +3310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45962</v>
       </c>
@@ -3199,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45963</v>
       </c>
@@ -3207,110 +3326,110 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45964</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45965</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45966</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45967</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45968</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45969</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45970</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45971</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45972</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45974</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45975</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45976</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45977</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45978</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45979</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45980</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45981</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45982</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45983</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45984</v>
       </c>
@@ -3318,37 +3437,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45985</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45986</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45987</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45988</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45989</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45990</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45991</v>
       </c>
